--- a/papers/neurips21/triangolo/triangolo.xlsx
+++ b/papers/neurips21/triangolo/triangolo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rcabanas/GoogleDrive/IDSIA/causality/dev/credici/papers/neurips21/triangolo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D93F7E1-1D52-5442-A1BC-8490A38E074E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93613CA4-02E2-0E4E-8FC6-D6C345DB729E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="-10160" windowWidth="32000" windowHeight="16600" xr2:uid="{4D4EEDAC-C3A9-DE49-A4CF-5D793F9C6858}"/>
+    <workbookView xWindow="27720" yWindow="-9240" windowWidth="20480" windowHeight="14600" xr2:uid="{4D4EEDAC-C3A9-DE49-A4CF-5D793F9C6858}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -142,8 +142,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -177,8 +185,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -248,10 +257,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.7522216294086263E-2"/>
-          <c:y val="0.41655536176570374"/>
-          <c:w val="0.93127184202739899"/>
-          <c:h val="0.47502537529456318"/>
+          <c:x val="0.11042031969248699"/>
+          <c:y val="0.52899064303175813"/>
+          <c:w val="0.84919656297004298"/>
+          <c:h val="0.27432919754272822"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1317,6 +1326,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12256777145738079"/>
+          <c:y val="0.86454306837259787"/>
+          <c:w val="0.60968565276123887"/>
+          <c:h val="0.13545693162740205"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1950,16 +1969,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>308599</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:rowOff>27891</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>184150</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>534112</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>130559</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2286,8 +2305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59D27D84-CF96-4549-BA1B-8681494BFB26}">
   <dimension ref="A1:S37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="107" workbookViewId="0">
-      <selection activeCell="O42" sqref="O42"/>
+    <sheetView tabSelected="1" topLeftCell="J14" zoomScale="107" workbookViewId="0">
+      <selection activeCell="R32" sqref="R32:S32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3067,10 +3086,10 @@
       <c r="K32">
         <v>0.15021817791330899</v>
       </c>
-      <c r="L32">
+      <c r="L32" s="2">
         <v>0.29717499346065201</v>
       </c>
-      <c r="M32">
+      <c r="M32" s="2">
         <v>0.31287862080360801</v>
       </c>
       <c r="N32">
@@ -3079,16 +3098,16 @@
       <c r="O32">
         <v>0.20372753570958901</v>
       </c>
-      <c r="P32">
+      <c r="P32" s="2">
         <v>5.4701177073378897E-2</v>
       </c>
-      <c r="Q32">
+      <c r="Q32" s="2">
         <v>0.10135073041921</v>
       </c>
-      <c r="R32">
+      <c r="R32" s="2">
         <v>3.3693330013310999E-2</v>
       </c>
-      <c r="S32">
+      <c r="S32" s="2">
         <v>9.6656522579714799E-2</v>
       </c>
     </row>
